--- a/backend/files/xlsx/作答信息.xlsx
+++ b/backend/files/xlsx/作答信息.xlsx
@@ -44,13 +44,13 @@
     <t>周青</t>
   </si>
   <si>
-    <t>2020/11/30测试</t>
-  </si>
-  <si>
-    <t>1.27分钟</t>
-  </si>
-  <si>
-    <t>2020-11-30 21:45:08</t>
+    <t>2020/11/30测试3</t>
+  </si>
+  <si>
+    <t>0.85分钟</t>
+  </si>
+  <si>
+    <t>2020-12-01 20:45:24</t>
   </si>
   <si>
     <t>有效</t>
@@ -434,7 +434,7 @@
         <v>9</v>
       </c>
       <c r="D2">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E2" t="s">
         <v>10</v>
